--- a/Unity/Assets/Config/Excel/GameConfig/__tables__.xlsx
+++ b/Unity/Assets/Config/Excel/GameConfig/__tables__.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\X-ET7\Unity\Assets\Config\Excel\GameConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\GameConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE190B8C-11CE-4BD9-B173-6A388287402A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28DEC21F-B7AE-47D4-945D-5C6A12DE9B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2916" yWindow="2652" windowWidth="17280" windowHeight="8508" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
   <si>
     <t>##var</t>
   </si>
@@ -136,18 +136,6 @@
   </si>
   <si>
     <t>AIConfig.xlsx</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UnitConfigCategory</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UnitConfig</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UnitConfig.xlsx</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -552,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -686,52 +674,56 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>36</v>
-      </c>
+      <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="L7" s="2"/>
     </row>
@@ -740,68 +732,50 @@
         <v>44</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="L8" s="2"/>
+        <v>34</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/GameConfig/__tables__.xlsx
+++ b/Unity/Assets/Config/Excel/GameConfig/__tables__.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\GameConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28DEC21F-B7AE-47D4-945D-5C6A12DE9B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E89381C-67E0-4E53-84DB-1208E2AA8084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
   <si>
     <t>##var</t>
   </si>
@@ -124,18 +124,6 @@
   </si>
   <si>
     <t>output</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AIConfigCategory</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AIConfig</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AIConfig.xlsx</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -540,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -660,52 +648,56 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>33</v>
-      </c>
+      <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L6" s="2"/>
     </row>
@@ -714,68 +706,50 @@
         <v>41</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L7" s="2"/>
+        <v>31</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" t="b">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
